--- a/host/引脚.xlsx
+++ b/host/引脚.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17616\CLionProjects\RemoteIIC\host\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180B7ABD-B306-4F1B-997E-F5E5275D39A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD987C1-CB35-4BF8-8CB8-561D4A2FD2A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="1815" windowWidth="15503" windowHeight="9847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-98" windowWidth="20857" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>3V3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,10 @@
   </si>
   <si>
     <t>GPIO19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -387,19 +391,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -680,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -692,19 +706,24 @@
     <col min="8" max="8" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -716,12 +735,15 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="2"/>
@@ -736,12 +758,12 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="2"/>
@@ -753,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="2"/>
@@ -771,12 +793,12 @@
         <v>22</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -788,12 +810,12 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2"/>
@@ -808,12 +830,12 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="2"/>
@@ -826,12 +848,12 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="2"/>
@@ -844,12 +866,12 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="2"/>
@@ -866,9 +888,9 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="2"/>
@@ -884,9 +906,9 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="2"/>
@@ -898,13 +920,13 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="2"/>
@@ -916,13 +938,13 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="2"/>
@@ -934,12 +956,12 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="2"/>
@@ -951,13 +973,13 @@
         <v>32</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="2"/>
@@ -969,13 +991,13 @@
         <v>33</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="2"/>
@@ -989,13 +1011,13 @@
         <v>34</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="2"/>
@@ -1007,7 +1029,7 @@
         <v>35</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I19" s="2"/>
@@ -1044,10 +1066,10 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
